--- a/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
@@ -675,24 +675,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.617515474141815</v>
+        <v>1.493261170723116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.54788110911399</v>
+        <v>1.617846033769774</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.3508560212170361</v>
+        <v>0.3449681476799755</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.115293054705252</v>
+        <v>0.989386574126404</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>1.262343375268958</v>
+        <v>1.273661657510353</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.704884340567687</v>
+        <v>1.654207142306582</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
     </row>
@@ -704,24 +704,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.953756723166013</v>
+        <v>5.887503658484249</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.677321560068224</v>
+        <v>6.507933037904971</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>4.097914591411696</v>
+        <v>3.947862409147161</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.351826916329715</v>
+        <v>4.864318796963086</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>4.039559511844579</v>
+        <v>4.0150703740054</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.652943305082403</v>
+        <v>4.906039745169562</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
     </row>
@@ -827,7 +827,7 @@
         <v>-1.697804918607691</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.853652159872013</v>
+        <v>1.853652159872014</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.237060160789197</v>
@@ -836,7 +836,7 @@
         <v>-2.059285384661742</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.539374628356644</v>
+        <v>1.539374628356645</v>
       </c>
     </row>
     <row r="11">
@@ -847,31 +847,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.825848246340485</v>
+        <v>-3.78181368527777</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.483341786524527</v>
+        <v>-4.504529017250106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.457715968203351</v>
+        <v>-1.355959483324465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.228864373861607</v>
+        <v>-4.450346072336804</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.594599554909746</v>
+        <v>-3.539776185286689</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3012760534654836</v>
+        <v>-0.2369098026553241</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.572326174803455</v>
+        <v>-3.558379744550862</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.403232511248539</v>
+        <v>-3.305734025868524</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2417162555047758</v>
+        <v>-0.1439133540927532</v>
       </c>
     </row>
     <row r="12">
@@ -882,31 +882,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3018826727770906</v>
+        <v>-0.01322577254022323</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.9167499248898031</v>
+        <v>-0.9449275144997344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.065939964206013</v>
+        <v>4.051976693409721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.15955769058701</v>
+        <v>-1.321606323303817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.01907533837645303</v>
+        <v>-0.07601712184874931</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.277328669405042</v>
+        <v>4.332356880335773</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.099798637647077</v>
+        <v>-1.162201943521907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.8680275073160845</v>
+        <v>-0.9873369773610934</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.245028793151584</v>
+        <v>3.432424698212783</v>
       </c>
     </row>
     <row r="13">
@@ -932,7 +932,7 @@
         <v>-0.5989111829523528</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6538872609472378</v>
+        <v>0.653887260947238</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.7659082512631961</v>
@@ -941,7 +941,7 @@
         <v>-0.7050430272119796</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5270397954910749</v>
+        <v>0.5270397954910752</v>
       </c>
     </row>
     <row r="14">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8856624069360473</v>
+        <v>-0.9002729740712837</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9571267392890306</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3788381873635409</v>
+        <v>-0.3864897410542592</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8702922240677943</v>
+        <v>-0.8582580188227391</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1358536736677377</v>
+        <v>-0.08983444665643175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.9096910200996128</v>
+        <v>-0.9126719014320364</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8779669751429779</v>
+        <v>-0.8757937326295291</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08995961591741866</v>
+        <v>-0.05554619205762936</v>
       </c>
     </row>
     <row r="15">
@@ -987,31 +987,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.06214203632021491</v>
+        <v>0.1246151916881472</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3390417740931108</v>
+        <v>-0.3083083598569499</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.939865417672395</v>
+        <v>1.889104823106156</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2651242203413012</v>
+        <v>-0.3473512494173854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1276483736133154</v>
+        <v>0.1257277205756377</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.47279469850567</v>
+        <v>2.498800319317146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4726338244249439</v>
+        <v>-0.4676181697635436</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4025011374175922</v>
+        <v>-0.3810575996515257</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.419535558982425</v>
+        <v>1.613142564491371</v>
       </c>
     </row>
     <row r="16">
@@ -1050,7 +1050,7 @@
         <v>-0.01945520585872598</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.184696659133826</v>
+        <v>0.1846966591338261</v>
       </c>
     </row>
     <row r="17">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>1.163465412363562</v>
+        <v>1.195891739944931</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.608442104978505</v>
+        <v>-1.654550740194111</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6341649266416773</v>
+        <v>-0.6169206002980673</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6334910577318892</v>
+        <v>0.6389394108359167</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.4608362706996249</v>
+        <v>-0.6016805378068706</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3222622580303589</v>
+        <v>-0.3056041413262749</v>
       </c>
     </row>
     <row r="18">
@@ -1094,29 +1094,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.597093681875134</v>
+        <v>1.698977433607163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.57884597858336</v>
+        <v>1.640294867035485</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>5.302134261004105</v>
+        <v>5.492708868110338</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.252675381942706</v>
+        <v>1.205512182861378</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.971913628280374</v>
+        <v>2.956472272112677</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2680431022213402</v>
+        <v>0.2669078078532746</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6532143786920805</v>
+        <v>0.6887073471087549</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1153,7 @@
         <v>-0.1272676679321462</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.208206854942004</v>
+        <v>1.208206854942005</v>
       </c>
     </row>
     <row r="20">
@@ -1208,7 +1208,7 @@
         <v>-1.758634282059656</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.480290896393061</v>
+        <v>-1.48029089639306</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.684016021169596</v>
@@ -1217,7 +1217,7 @@
         <v>2.146673061832287</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.01484214420114163</v>
+        <v>-0.01484214420114155</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.604057445704137</v>
@@ -1226,7 +1226,7 @@
         <v>0.231582854476561</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.7544202222772007</v>
+        <v>-0.7544202222772004</v>
       </c>
     </row>
     <row r="23">
@@ -1237,31 +1237,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.104709327071706</v>
+        <v>-1.37003553354735</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.198859508340013</v>
+        <v>-4.321346655505906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.13797296538797</v>
+        <v>-4.107849199897193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.835412654646142</v>
+        <v>1.94680183144984</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7310752386622767</v>
+        <v>0.4999038238992713</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.072460775577141</v>
+        <v>-1.066294543091525</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.038649722698154</v>
+        <v>0.7409707662905032</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.270222429551637</v>
+        <v>-1.186162432666762</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.945548761357607</v>
+        <v>-2.005151163938068</v>
       </c>
     </row>
     <row r="24">
@@ -1272,31 +1272,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.579211779848269</v>
+        <v>4.447730172661132</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.003701528644807707</v>
+        <v>0.1118986456701723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6906421097022257</v>
+        <v>0.355824681954874</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.161479441191005</v>
+        <v>6.297360643963598</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.171773190124394</v>
+        <v>4.040657666136569</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7725130287142965</v>
+        <v>0.772274740562092</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.641414728028536</v>
+        <v>4.344358020345624</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.582973491261278</v>
+        <v>1.609322987003974</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2924353820003143</v>
+        <v>0.272367184580572</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>-0.6292900882246207</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5296907937552037</v>
+        <v>-0.5296907937552036</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>7.435219936547944</v>
@@ -1322,7 +1322,7 @@
         <v>4.332496453562808</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.02995497463401707</v>
+        <v>-0.0299549746340169</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.602568522502797</v>
@@ -1331,7 +1331,7 @@
         <v>0.1425188962508198</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4642793510394657</v>
+        <v>-0.4642793510394655</v>
       </c>
     </row>
     <row r="26">
@@ -1342,29 +1342,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3560756564147506</v>
+        <v>-0.4022312526710863</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9175508042879306</v>
+        <v>-0.9376594672330317</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.9109661091056396</v>
+        <v>-0.8980570909323187</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.8846237310224425</v>
+        <v>0.9681914651783858</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01280206674631506</v>
+        <v>-0.1559285364692032</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>0.2563912416180328</v>
+        <v>0.2158859029202568</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5344936253316304</v>
+        <v>-0.5179829399850073</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8136230797387214</v>
+        <v>-0.8144425008049742</v>
       </c>
     </row>
     <row r="27">
@@ -1375,25 +1375,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.709732493720694</v>
+        <v>2.803129763861093</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4450452734245943</v>
+        <v>0.6080906757708733</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7518083812202538</v>
+        <v>0.4521812437912304</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>4.535562771313312</v>
+        <v>4.728690464125745</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.55361608362674</v>
+        <v>1.795613583203765</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4641153667116964</v>
+        <v>0.5305873053104856</v>
       </c>
     </row>
     <row r="28">
@@ -1443,13 +1443,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.168807092559313</v>
+        <v>-2.11305565119812</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.12659506444977</v>
+        <v>-2.544675713329057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.441684143802528</v>
+        <v>-2.061625572347948</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="n">
-        <v>-0.4017138792570516</v>
+        <v>-0.3994821362568645</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.161660382347606</v>
+        <v>-1.043724533483119</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.039076377130741</v>
+        <v>-1.049864079187629</v>
       </c>
     </row>
     <row r="30">
@@ -1483,12 +1483,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.877116823553166</v>
+        <v>2.710976695567648</v>
       </c>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="n">
-        <v>1.156262695339444</v>
+        <v>1.188886674951692</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>1.128244437300017</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.937061198816371</v>
+        <v>1.93706119881637</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.8657588561429869</v>
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.754808858105477</v>
+        <v>-0.7283450789115986</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.460714734929102</v>
+        <v>-1.392432868268675</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.4423968888754766</v>
+        <v>-0.2374288371199938</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.6868511670796302</v>
+        <v>-0.4418315892367001</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.4520005785808327</v>
+        <v>-0.3740919611996694</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.1247439119959378</v>
+        <v>0.2130561679459551</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3336153294727526</v>
+        <v>-0.3393813124600051</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.491814272577159</v>
+        <v>-0.4944699133425173</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.5372903394773523</v>
+        <v>0.4856221659275005</v>
       </c>
     </row>
     <row r="36">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.530974179604178</v>
+        <v>2.889731501283769</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.543830945501456</v>
+        <v>1.571906196145453</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.353102623312809</v>
+        <v>3.532001308243946</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.677689636225778</v>
+        <v>3.564439747122736</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.391927145484823</v>
+        <v>3.3905555339472</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.895787066140036</v>
+        <v>3.841466128064561</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.308742049992226</v>
+        <v>2.39348861890526</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.031899112787652</v>
+        <v>1.869110587917605</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.079004386807179</v>
+        <v>3.129650599892941</v>
       </c>
     </row>
     <row r="37">
@@ -1687,7 +1687,7 @@
         <v>0.08526940511832602</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>2.093925926086839</v>
+        <v>2.093925926086838</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>1.407831907599358</v>
@@ -1696,7 +1696,7 @@
         <v>1.610751848204294</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>2.76546890277165</v>
+        <v>2.765468902771647</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.231297242525071</v>
@@ -1705,7 +1705,7 @@
         <v>0.8592311363190611</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>2.424855426720998</v>
+        <v>2.424855426720999</v>
       </c>
     </row>
     <row r="38">
@@ -1718,23 +1718,21 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6860098941510526</v>
+        <v>-0.6375151031872052</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
-      <c r="G38" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.4455356871693211</v>
+        <v>-0.3495998169332152</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5438884063525957</v>
+        <v>-0.498028614451958</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6024043249528502</v>
+        <v>-0.5990023072082503</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1759978014088054</v>
+        <v>0.1869266107527454</v>
       </c>
     </row>
     <row r="39">
@@ -1751,13 +1749,13 @@
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>8.074192452245747</v>
+        <v>7.845590271096143</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>7.030997564199652</v>
+        <v>9.279486955920463</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>12.42400222848801</v>
+        <v>13.7467360489506</v>
       </c>
     </row>
     <row r="40">
@@ -1807,31 +1805,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.259381516371675</v>
+        <v>-3.161158914000344</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.12723481610483</v>
+        <v>-2.934904980010992</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.288283389725295</v>
+        <v>-2.30925541601892</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.094401355771303</v>
+        <v>-3.066754542132836</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.882036804960503</v>
+        <v>-3.75173560708128</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.626306646140154</v>
+        <v>-2.553344357414386</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.509168301468362</v>
+        <v>-2.398908101041223</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.832862171383092</v>
+        <v>-2.730039622282914</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.691165522957942</v>
+        <v>-1.746792067831882</v>
       </c>
     </row>
     <row r="42">
@@ -1842,31 +1840,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.1506269360380577</v>
+        <v>-0.1591768632765376</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.3606793538120551</v>
+        <v>0.3912715700102689</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.554677690844414</v>
+        <v>1.523686593526775</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.2582076479864933</v>
+        <v>0.3222182428426571</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.7456366497426633</v>
+        <v>-0.6828137905880249</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.8713786734401121</v>
+        <v>0.975401589387073</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.2116661758505285</v>
+        <v>-0.1221276757423856</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.6458609964852632</v>
+        <v>-0.4980559343536172</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.858256158818411</v>
+        <v>0.7993194568518204</v>
       </c>
     </row>
     <row r="43">
@@ -1912,31 +1910,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8862394933205708</v>
+        <v>-0.886461664653233</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8542179872668165</v>
+        <v>-0.8441465478229988</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.667881252998596</v>
+        <v>-0.6708319000078464</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.767993820896145</v>
+        <v>-0.741651208364286</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.9453335230830383</v>
+        <v>-0.9270680246446295</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.65315515873379</v>
+        <v>-0.653877839085818</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.7343896252815136</v>
+        <v>-0.7271606922729055</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.8347371479442035</v>
+        <v>-0.8512884254849221</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5131026430836592</v>
+        <v>-0.5004712167085849</v>
       </c>
     </row>
     <row r="45">
@@ -1947,31 +1945,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.07979508156231767</v>
+        <v>0.1061771285305908</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5271203176002408</v>
+        <v>0.5840494359700749</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9090725668728538</v>
+        <v>0.9673101405779776</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2003034793838377</v>
+        <v>0.2029768315591259</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.2663871482796165</v>
+        <v>-0.2608234555188977</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5104817620032076</v>
+        <v>0.5174988377015722</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.09191078701098011</v>
+        <v>-0.04145573884068848</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2668046752856759</v>
+        <v>-0.2353196352984102</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4922640130328002</v>
+        <v>0.425042581496722</v>
       </c>
     </row>
     <row r="46">
@@ -2021,31 +2019,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.669048250819375</v>
+        <v>-2.727519367134271</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.439499039654925</v>
+        <v>-2.714096461022806</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.620344871764145</v>
+        <v>-1.732064020729858</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.146776634492259</v>
+        <v>-3.015752268796946</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.169552035817504</v>
+        <v>-3.099413184367157</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.362578952590014</v>
+        <v>-3.31603189530397</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.612513015394171</v>
+        <v>-2.476746357263714</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.481567763106216</v>
+        <v>-2.438323438031624</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.143146341074341</v>
+        <v>-2.155129210548015</v>
       </c>
     </row>
     <row r="48">
@@ -2056,31 +2054,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.5125263315079673</v>
+        <v>-0.5141287625072316</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.2151736363229844</v>
+        <v>-0.2460828415116154</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.9503873461655648</v>
+        <v>0.9520551973938376</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.6084536152788464</v>
+        <v>-0.5382924352320949</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.590821248074252</v>
+        <v>-0.4381762600055924</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.8605152648669481</v>
+        <v>-0.9194275653464602</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.8209214319781506</v>
+        <v>-0.8232491558168896</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7699399848605256</v>
+        <v>-0.7491053137541509</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.3307651952996503</v>
+        <v>-0.344542114320463</v>
       </c>
     </row>
     <row r="49">
@@ -2115,7 +2113,7 @@
         <v>-0.6962447926272443</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.5580276699193094</v>
+        <v>-0.5580276699193095</v>
       </c>
     </row>
     <row r="50">
@@ -2129,28 +2127,28 @@
         <v>-1</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.9357339417782077</v>
+        <v>-0.9378694032197801</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6763096695620172</v>
+        <v>-0.6962452911202393</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.9168646582428031</v>
+        <v>-0.8981836398036448</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.899789785790027</v>
+        <v>-0.9071845499030892</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.9625278305248415</v>
+        <v>-0.9562959771018543</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.8915742454572948</v>
+        <v>-0.8972995471603581</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.8551892032433837</v>
+        <v>-0.8635563991620403</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7735524091749015</v>
+        <v>-0.7713976596099846</v>
       </c>
     </row>
     <row r="51">
@@ -2161,31 +2159,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2972112496273853</v>
+        <v>-0.1141488693351247</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1072868102384883</v>
+        <v>-0.07371784302619272</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.044148119866456</v>
+        <v>1.029256300306552</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2955478331114171</v>
+        <v>-0.2129660417715436</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2242347941828208</v>
+        <v>-0.1747546097793994</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.4285000856073763</v>
+        <v>-0.3920154645535169</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4367593444355848</v>
+        <v>-0.503897368329403</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3884759367952111</v>
+        <v>-0.4079642895379879</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1597639553030802</v>
+        <v>-0.1647206602292932</v>
       </c>
     </row>
     <row r="52">
@@ -2215,7 +2213,7 @@
         <v>-0.548258206620697</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-0.1323261403962916</v>
+        <v>-0.1323261403962914</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.2306311169269682</v>
@@ -2224,7 +2222,7 @@
         <v>-0.6574632925738183</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.0579328183261868</v>
+        <v>-0.05793281832618645</v>
       </c>
     </row>
     <row r="53">
@@ -2235,31 +2233,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.014748460152798</v>
+        <v>-1.032348722827459</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.316559077025508</v>
+        <v>-1.386569472342259</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.5980083940780869</v>
+        <v>-0.6750172553238825</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.6783059571732468</v>
+        <v>-0.7369185664447607</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.079415942113337</v>
+        <v>-1.119119366164959</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.744401389555382</v>
+        <v>-0.6984101083121081</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.6874732829795042</v>
+        <v>-0.6455348245999226</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.060872418085701</v>
+        <v>-1.072391503843545</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.5264833950831016</v>
+        <v>-0.4856073597625907</v>
       </c>
     </row>
     <row r="54">
@@ -2270,31 +2268,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.2174337089501505</v>
+        <v>0.2322997633754739</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.1691663878851074</v>
+        <v>-0.1938173589363522</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.6784623715310255</v>
+        <v>0.6910447912188673</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.5550359649537686</v>
+        <v>0.5785031612495072</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.07588958489533514</v>
+        <v>0.05264429045336145</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.4471347046056806</v>
+        <v>0.485539812396803</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.2062950466537603</v>
+        <v>0.1874980308100096</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.2447266064799349</v>
+        <v>-0.2273423049885029</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.3643482851910915</v>
+        <v>0.4054713680889056</v>
       </c>
     </row>
     <row r="55">
@@ -2320,7 +2318,7 @@
         <v>-0.3279754325300903</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.07915927679225154</v>
+        <v>-0.07915927679225143</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.1373512787071909</v>
@@ -2329,7 +2327,7 @@
         <v>-0.3915491766301832</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.03450161791798829</v>
+        <v>-0.03450161791798809</v>
       </c>
     </row>
     <row r="56">
@@ -2340,31 +2338,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5142072504914484</v>
+        <v>-0.4908125755958491</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6713478158528916</v>
+        <v>-0.6557907139155533</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3109763299690645</v>
+        <v>-0.3390271656327623</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3369390505422589</v>
+        <v>-0.3561412878938148</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.5481349543971563</v>
+        <v>-0.5658032456565815</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3564418519546159</v>
+        <v>-0.3473485274165343</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3552900113942863</v>
+        <v>-0.340295059886613</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.5594935695478733</v>
+        <v>-0.5582885924475061</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2724115405632348</v>
+        <v>-0.2577636860037211</v>
       </c>
     </row>
     <row r="57">
@@ -2375,31 +2373,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1631975440015032</v>
+        <v>0.1599839969158986</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1198420066871283</v>
+        <v>-0.06886185505148487</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4762799075908181</v>
+        <v>0.5349567743197722</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4220885273588207</v>
+        <v>0.4537656963558626</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.08247260734904781</v>
+        <v>0.04270484048103939</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3620605267247314</v>
+        <v>0.4010278329897632</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1449133362257181</v>
+        <v>0.1327538764747536</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1594432949287819</v>
+        <v>-0.1543053854279316</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2591384422228746</v>
+        <v>0.2860145860890275</v>
       </c>
     </row>
     <row r="58">
